--- a/regions/12/ckhovrebis done/kharjebi.xlsx
+++ b/regions/12/ckhovrebis done/kharjebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -317,20 +317,20 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -345,27 +345,27 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -380,18 +380,6 @@
     <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -404,15 +392,6 @@
     <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -420,6 +399,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -730,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -744,23 +732,25 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5">
         <v>2011</v>
@@ -795,8 +785,14 @@
       <c r="L2" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="6">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -830,11 +826,17 @@
       <c r="K3" s="16">
         <v>62.148581854701668</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="16">
         <v>73.57645385111509</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="20">
+        <v>81.983943065366205</v>
+      </c>
+      <c r="N3" s="20">
+        <v>85.213563744588825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -868,11 +870,17 @@
       <c r="K4" s="17">
         <v>52.602866151973394</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="17">
         <v>62.029327206302767</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="21">
+        <v>71.721086299536424</v>
+      </c>
+      <c r="N4" s="21">
+        <v>74.335156523162524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
@@ -906,11 +914,17 @@
       <c r="K5" s="18">
         <v>24.970028116281508</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="18">
         <v>29.722643929557719</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="22">
+        <v>32.320368266540392</v>
+      </c>
+      <c r="N5" s="22">
+        <v>33.023532776170399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
@@ -944,11 +958,17 @@
       <c r="K6" s="18">
         <v>1.9583250093129476</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="18">
         <v>2.1413678889300032</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="22">
+        <v>2.5211786232630415</v>
+      </c>
+      <c r="N6" s="22">
+        <v>3.0419377558314005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
@@ -982,11 +1002,17 @@
       <c r="K7" s="18">
         <v>1.9471695454351456</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="18">
         <v>2.3714505516206676</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="22">
+        <v>2.6695418848950063</v>
+      </c>
+      <c r="N7" s="22">
+        <v>3.9547574320810353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
@@ -1020,11 +1046,17 @@
       <c r="K8" s="18">
         <v>6.062345696548209</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="18">
         <v>7.3173588446903235</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1">
+      <c r="M8" s="22">
+        <v>7.8087389058507268</v>
+      </c>
+      <c r="N8" s="22">
+        <v>7.4070214865762996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
@@ -1058,11 +1090,17 @@
       <c r="K9" s="18">
         <v>6.3646641030297912</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="18">
         <v>6.9913144505944125</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="22">
+        <v>7.6358265060207247</v>
+      </c>
+      <c r="N9" s="22">
+        <v>7.793778544015832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>4</v>
       </c>
@@ -1096,11 +1134,17 @@
       <c r="K10" s="18">
         <v>4.1953166501913</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="18">
         <v>5.0521513349665854</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="22">
+        <v>8.0967130853007916</v>
+      </c>
+      <c r="N10" s="22">
+        <v>7.6688970947942057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
@@ -1134,11 +1178,17 @@
       <c r="K11" s="18">
         <v>1.3145924043095907</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="18">
         <v>1.5960634949925741</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="22">
+        <v>1.9927598457043967</v>
+      </c>
+      <c r="N11" s="22">
+        <v>1.3509698384234112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>6</v>
       </c>
@@ -1172,11 +1222,17 @@
       <c r="K12" s="18">
         <v>5.7904246268649056</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="18">
         <v>6.8369767109504833</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="22">
+        <v>8.6759591819613515</v>
+      </c>
+      <c r="N12" s="22">
+        <v>10.094261595269938</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
@@ -1210,11 +1266,17 @@
       <c r="K13" s="17">
         <v>9.5457157027282609</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="17">
         <v>11.547126644812327</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="21">
+        <v>10.262856765829778</v>
+      </c>
+      <c r="N13" s="21">
+        <v>10.878407221426295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
@@ -1248,11 +1310,17 @@
       <c r="K14" s="17">
         <v>14.932481485450742</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="17">
         <v>17.937248012924194</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="21">
+        <v>22.433086505804699</v>
+      </c>
+      <c r="N14" s="21">
+        <v>31.3684830284284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
@@ -1286,11 +1354,17 @@
       <c r="K15" s="18">
         <v>2.1331769726791383</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="18">
         <v>2.4500182086410525</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="22">
+        <v>3.3225724816640221</v>
+      </c>
+      <c r="N15" s="22">
+        <v>3.2516721724179591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>8</v>
       </c>
@@ -1324,11 +1398,17 @@
       <c r="K16" s="18">
         <v>1.5978188838322958</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="18">
         <v>1.3131218211174012</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="22">
+        <v>2.0519862468338013</v>
+      </c>
+      <c r="N16" s="22">
+        <v>2.8193730113360091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>9</v>
       </c>
@@ -1362,11 +1442,17 @@
       <c r="K17" s="18">
         <v>9.7942305592969241</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="18">
         <v>11.778329533166247</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="M17" s="22">
+        <v>15.102848413926443</v>
+      </c>
+      <c r="N17" s="22">
+        <v>20.347593539768223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>10</v>
       </c>
@@ -1400,11 +1486,17 @@
       <c r="K18" s="18">
         <v>1.4072550696423847</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="18">
         <v>2.3957784499994914</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="M18" s="22">
+        <v>1.9556793633804319</v>
+      </c>
+      <c r="N18" s="22">
+        <v>4.9498443049062102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1438,11 +1530,17 @@
       <c r="K19" s="17">
         <v>67.535347637424124</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="17">
         <v>79.966575219226954</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="M19" s="21">
+        <v>94.154172805341105</v>
+      </c>
+      <c r="N19" s="21">
+        <v>105.70363955159092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>16</v>
       </c>
@@ -1476,11 +1574,17 @@
       <c r="K20" s="19">
         <v>77.081063340152411</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="19">
         <v>91.513701864039305</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75">
+      <c r="M20" s="23">
+        <v>104.41702957117093</v>
+      </c>
+      <c r="N20" s="23">
+        <v>116.5820467730172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1491,7 +1595,7 @@
       <c r="H21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75">
+    <row r="22" spans="1:14" ht="15.75">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1502,23 +1606,25 @@
       <c r="H22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="5">
         <v>2011</v>
@@ -1553,8 +1659,14 @@
       <c r="L24" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="M24" s="6">
+        <v>2022</v>
+      </c>
+      <c r="N24" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
@@ -1588,11 +1700,17 @@
       <c r="K25" s="16">
         <v>810.74662309743655</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="16">
         <v>939.55427698167216</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="M25" s="20">
+        <v>1105.2495233187458</v>
+      </c>
+      <c r="N25" s="20">
+        <v>1145.0922027315567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
@@ -1626,11 +1744,17 @@
       <c r="K26" s="17">
         <v>686.2199397834288</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="17">
         <v>792.10014378933113</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="M26" s="21">
+        <v>966.89294855290279</v>
+      </c>
+      <c r="N26" s="21">
+        <v>998.9091452463573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>0</v>
       </c>
@@ -1664,11 +1788,17 @@
       <c r="K27" s="18">
         <v>325.7413985930196</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="18">
         <v>379.55127986636506</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="M27" s="22">
+        <v>435.72034089161463</v>
+      </c>
+      <c r="N27" s="22">
+        <v>443.76726223991568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
@@ -1702,11 +1832,17 @@
       <c r="K28" s="18">
         <v>25.546928680362399</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="18">
         <v>27.34477204768012</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="M28" s="22">
+        <v>33.988746666419452</v>
+      </c>
+      <c r="N28" s="22">
+        <v>40.877285872443757</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>2</v>
       </c>
@@ -1740,11 +1876,17 @@
       <c r="K29" s="18">
         <v>25.401402356219428</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="18">
         <v>30.282874368128784</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="M29" s="22">
+        <v>35.988875204589448</v>
+      </c>
+      <c r="N29" s="22">
+        <v>53.143674553315904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>3</v>
       </c>
@@ -1778,11 +1920,17 @@
       <c r="K30" s="18">
         <v>79.085091804937221</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="18">
         <v>93.440977906470067</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1">
+      <c r="M30" s="22">
+        <v>105.27189386988663</v>
+      </c>
+      <c r="N30" s="22">
+        <v>99.534888309165737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="30" customHeight="1">
       <c r="A31" s="15" t="s">
         <v>17</v>
       </c>
@@ -1816,11 +1964,17 @@
       <c r="K31" s="18">
         <v>83.028924790992704</v>
       </c>
-      <c r="L31" s="22">
+      <c r="L31" s="18">
         <v>89.277466498614018</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="M31" s="22">
+        <v>102.94081121708425</v>
+      </c>
+      <c r="N31" s="22">
+        <v>104.73209484958029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>4</v>
       </c>
@@ -1854,11 +2008,17 @@
       <c r="K32" s="18">
         <v>54.72914595089393</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L32" s="18">
         <v>64.514802579800829</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="M32" s="22">
+        <v>109.15415803851195</v>
+      </c>
+      <c r="N32" s="22">
+        <v>103.0539491708229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>5</v>
       </c>
@@ -1892,11 +2052,17 @@
       <c r="K33" s="18">
         <v>17.149246543312888</v>
       </c>
-      <c r="L33" s="22">
+      <c r="L33" s="18">
         <v>20.381361217667074</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="M33" s="22">
+        <v>26.86497852143388</v>
+      </c>
+      <c r="N33" s="22">
+        <v>18.154211138744852</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="14" t="s">
         <v>6</v>
       </c>
@@ -1930,11 +2096,17 @@
       <c r="K34" s="18">
         <v>75.537801063690779</v>
       </c>
-      <c r="L34" s="22">
+      <c r="L34" s="18">
         <v>87.306609304605075</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="M34" s="22">
+        <v>116.96314414336281</v>
+      </c>
+      <c r="N34" s="22">
+        <v>135.64577911236827</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="10" t="s">
         <v>13</v>
       </c>
@@ -1968,11 +2140,17 @@
       <c r="K35" s="17">
         <v>124.52668331400754</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="17">
         <v>147.45413319234089</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="M35" s="21">
+        <v>138.35657476584262</v>
+      </c>
+      <c r="N35" s="21">
+        <v>146.18305748519916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="10" t="s">
         <v>14</v>
       </c>
@@ -2006,11 +2184,17 @@
       <c r="K36" s="17">
         <v>194.798635423381</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L36" s="17">
         <v>229.05450325081827</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+      <c r="M36" s="21">
+        <v>302.42700265514577</v>
+      </c>
+      <c r="N36" s="21">
+        <v>421.52685263854471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="14" t="s">
         <v>7</v>
       </c>
@@ -2044,11 +2228,17 @@
       <c r="K37" s="18">
         <v>27.82792423344711</v>
       </c>
-      <c r="L37" s="22">
+      <c r="L37" s="18">
         <v>31.286165153728565</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+      <c r="M37" s="22">
+        <v>44.792571743264666</v>
+      </c>
+      <c r="N37" s="22">
+        <v>43.695678092226622</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="14" t="s">
         <v>8</v>
       </c>
@@ -2082,11 +2272,17 @@
       <c r="K38" s="18">
         <v>20.844019698099473</v>
       </c>
-      <c r="L38" s="22">
+      <c r="L38" s="18">
         <v>16.768261565382822</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
+      <c r="M38" s="22">
+        <v>27.663426963514393</v>
+      </c>
+      <c r="N38" s="22">
+        <v>37.886480860597302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1">
       <c r="A39" s="14" t="s">
         <v>9</v>
       </c>
@@ -2120,11 +2316,17 @@
       <c r="K39" s="18">
         <v>127.76863308566345</v>
       </c>
-      <c r="L39" s="22">
+      <c r="L39" s="18">
         <v>150.40654053508956</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="M39" s="22">
+        <v>203.60591825814632</v>
+      </c>
+      <c r="N39" s="22">
+        <v>273.42913126572716</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="14" t="s">
         <v>10</v>
       </c>
@@ -2158,11 +2360,17 @@
       <c r="K40" s="18">
         <v>18.358058406170983</v>
       </c>
-      <c r="L40" s="22">
+      <c r="L40" s="18">
         <v>30.593535996617319</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="22">
+        <v>26.365085690220393</v>
+      </c>
+      <c r="N40" s="22">
+        <v>66.515562419993614</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="10" t="s">
         <v>15</v>
       </c>
@@ -2196,11 +2404,17 @@
       <c r="K41" s="17">
         <v>881.01857520680971</v>
       </c>
-      <c r="L41" s="21">
+      <c r="L41" s="17">
         <v>1021.1546470401494</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="21">
+        <v>1269.3199512080482</v>
+      </c>
+      <c r="N41" s="21">
+        <v>1420.435997884902</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>16</v>
       </c>
@@ -2234,11 +2448,17 @@
       <c r="K42" s="9">
         <v>1005.5452585208174</v>
       </c>
-      <c r="L42" s="23">
+      <c r="L42" s="9">
         <v>1168.6087802324903</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75">
+      <c r="M42" s="23">
+        <v>1407.6765259738913</v>
+      </c>
+      <c r="N42" s="23">
+        <v>1566.6190553701008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2249,7 +2469,7 @@
       <c r="H43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75">
+    <row r="44" spans="1:14" ht="15.75">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2260,23 +2480,25 @@
       <c r="H44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
-      <c r="A45" s="28" t="s">
+    <row r="45" spans="1:14" ht="30" customHeight="1">
+      <c r="A45" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="5">
         <v>2011</v>
@@ -2311,8 +2533,14 @@
       <c r="L46" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="6">
+        <v>2022</v>
+      </c>
+      <c r="N46" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
@@ -2346,11 +2574,17 @@
       <c r="K47" s="16">
         <v>243.60147164118075</v>
       </c>
-      <c r="L47" s="24">
+      <c r="L47" s="16">
         <v>289.57873292814418</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="20">
+        <v>327.29558228230957</v>
+      </c>
+      <c r="N47" s="20">
+        <v>345.01932827240773</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="10" t="s">
         <v>12</v>
       </c>
@@ -2384,11 +2618,17 @@
       <c r="K48" s="17">
         <v>206.18548685669421</v>
       </c>
-      <c r="L48" s="25">
+      <c r="L48" s="17">
         <v>244.13209711267135</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="21">
+        <v>286.32429503434122</v>
+      </c>
+      <c r="N48" s="21">
+        <v>300.97398399529374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="14" t="s">
         <v>0</v>
       </c>
@@ -2422,11 +2662,17 @@
       <c r="K49" s="18">
         <v>97.874085208714476</v>
       </c>
-      <c r="L49" s="26">
+      <c r="L49" s="18">
         <v>116.9809785316974</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="22">
+        <v>129.02909223263237</v>
+      </c>
+      <c r="N49" s="22">
+        <v>133.70825717096793</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="14" t="s">
         <v>1</v>
       </c>
@@ -2460,11 +2706,17 @@
       <c r="K50" s="18">
         <v>7.6759732882669658</v>
       </c>
-      <c r="L50" s="26">
+      <c r="L50" s="18">
         <v>8.4278946259648695</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="22">
+        <v>10.065027305172134</v>
+      </c>
+      <c r="N50" s="22">
+        <v>12.316435025639585</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="14" t="s">
         <v>2</v>
       </c>
@@ -2498,11 +2750,17 @@
       <c r="K51" s="18">
         <v>7.6322476337729377</v>
       </c>
-      <c r="L51" s="26">
+      <c r="L51" s="18">
         <v>9.3334431057206189</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="22">
+        <v>10.65732182394663</v>
+      </c>
+      <c r="N51" s="22">
+        <v>16.012330581392412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="14" t="s">
         <v>3</v>
       </c>
@@ -2536,11 +2794,17 @@
       <c r="K52" s="18">
         <v>23.762349665988399</v>
       </c>
-      <c r="L52" s="26">
+      <c r="L52" s="18">
         <v>28.7993154292779</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="30" customHeight="1">
+      <c r="M52" s="22">
+        <v>31.173979336944225</v>
+      </c>
+      <c r="N52" s="22">
+        <v>29.990126753267351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="30" customHeight="1">
       <c r="A53" s="15" t="s">
         <v>17</v>
       </c>
@@ -2574,11 +2838,17 @@
       <c r="K53" s="18">
         <v>24.947335815717555</v>
       </c>
-      <c r="L53" s="26">
+      <c r="L53" s="18">
         <v>27.516085298186344</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="22">
+        <v>30.483679962820801</v>
+      </c>
+      <c r="N53" s="22">
+        <v>31.556058915925835</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="14" t="s">
         <v>4</v>
       </c>
@@ -2612,11 +2882,17 @@
       <c r="K54" s="18">
         <v>16.444225748813835</v>
       </c>
-      <c r="L54" s="26">
+      <c r="L54" s="18">
         <v>19.884018671262492</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="22">
+        <v>32.323627343874449</v>
+      </c>
+      <c r="N54" s="22">
+        <v>31.050429156639229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="14" t="s">
         <v>5</v>
       </c>
@@ -2650,11 +2926,17 @@
       <c r="K55" s="18">
         <v>5.1527586751186316</v>
       </c>
-      <c r="L55" s="26">
+      <c r="L55" s="18">
         <v>6.2817113405338461</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
+      <c r="M55" s="22">
+        <v>7.9554784712978028</v>
+      </c>
+      <c r="N55" s="22">
+        <v>5.4699121323713822</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
       <c r="A56" s="14" t="s">
         <v>6</v>
       </c>
@@ -2688,11 +2970,17 @@
       <c r="K56" s="18">
         <v>22.696510820301437</v>
       </c>
-      <c r="L56" s="26">
+      <c r="L56" s="18">
         <v>26.90865011002791</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
+      <c r="M56" s="22">
+        <v>34.636088557652812</v>
+      </c>
+      <c r="N56" s="22">
+        <v>40.87043425909004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
       <c r="A57" s="10" t="s">
         <v>13</v>
       </c>
@@ -2726,11 +3014,17 @@
       <c r="K57" s="17">
         <v>37.415984784486525</v>
       </c>
-      <c r="L57" s="25">
+      <c r="L57" s="17">
         <v>45.446635815472767</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
+      <c r="M57" s="21">
+        <v>40.971287247968291</v>
+      </c>
+      <c r="N57" s="21">
+        <v>44.045344277113955</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
       <c r="A58" s="10" t="s">
         <v>14</v>
       </c>
@@ -2764,11 +3058,17 @@
       <c r="K58" s="17">
         <v>58.530289132177458</v>
       </c>
-      <c r="L58" s="25">
+      <c r="L58" s="17">
         <v>70.59657376680893</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
+      <c r="M58" s="21">
+        <v>89.557172243505718</v>
+      </c>
+      <c r="N58" s="21">
+        <v>127.0071625666524</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1">
       <c r="A59" s="14" t="s">
         <v>7</v>
       </c>
@@ -2802,11 +3102,17 @@
       <c r="K59" s="18">
         <v>8.3613339887723388</v>
       </c>
-      <c r="L59" s="26">
+      <c r="L59" s="18">
         <v>9.6426659804073296</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1">
+      <c r="M59" s="22">
+        <v>13.264344875366191</v>
+      </c>
+      <c r="N59" s="22">
+        <v>13.165624102430131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" customHeight="1">
       <c r="A60" s="14" t="s">
         <v>8</v>
       </c>
@@ -2840,11 +3146,17 @@
       <c r="K60" s="18">
         <v>6.2629109128766061</v>
       </c>
-      <c r="L60" s="26">
+      <c r="L60" s="18">
         <v>5.1681228604592668</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1">
+      <c r="M60" s="22">
+        <v>8.1919215931988649</v>
+      </c>
+      <c r="N60" s="22">
+        <v>11.4152975157347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" customHeight="1">
       <c r="A61" s="14" t="s">
         <v>9</v>
       </c>
@@ -2878,11 +3190,17 @@
       <c r="K61" s="18">
         <v>38.390079172132523</v>
       </c>
-      <c r="L61" s="26">
+      <c r="L61" s="18">
         <v>46.356593226499037</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1">
+      <c r="M61" s="22">
+        <v>60.293459681688574</v>
+      </c>
+      <c r="N61" s="22">
+        <v>82.384924964443996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" customHeight="1">
       <c r="A62" s="14" t="s">
         <v>10</v>
       </c>
@@ -2916,11 +3234,17 @@
       <c r="K62" s="18">
         <v>5.5159650583959872</v>
       </c>
-      <c r="L62" s="26">
+      <c r="L62" s="18">
         <v>9.4291916994432761</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1">
+      <c r="M62" s="22">
+        <v>7.8074460932520848</v>
+      </c>
+      <c r="N62" s="22">
+        <v>20.041315984043571</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" customHeight="1">
       <c r="A63" s="10" t="s">
         <v>15</v>
       </c>
@@ -2954,11 +3278,17 @@
       <c r="K63" s="17">
         <v>264.71577598887166</v>
       </c>
-      <c r="L63" s="25">
+      <c r="L63" s="17">
         <v>314.72867087948026</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1">
+      <c r="M63" s="21">
+        <v>375.88146727784681</v>
+      </c>
+      <c r="N63" s="21">
+        <v>427.98114656194616</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15" customHeight="1">
       <c r="A64" s="13" t="s">
         <v>16</v>
       </c>
@@ -2992,118 +3322,130 @@
       <c r="K64" s="19">
         <v>302.13176077335822</v>
       </c>
-      <c r="L64" s="27">
+      <c r="L64" s="19">
         <v>360.17530669495312</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A65" s="29" t="s">
+      <c r="M64" s="23">
+        <v>416.85275452581521</v>
+      </c>
+      <c r="N64" s="23">
+        <v>472.02649083905999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A65" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-    </row>
-    <row r="66" spans="1:12" ht="30" customHeight="1">
-      <c r="A66" s="30" t="s">
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+    </row>
+    <row r="66" spans="1:14" ht="15" customHeight="1">
+      <c r="A66" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-    </row>
-    <row r="67" spans="1:12" ht="45" customHeight="1">
-      <c r="A67" s="32" t="s">
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+    </row>
+    <row r="67" spans="1:14" ht="45" customHeight="1">
+      <c r="A67" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="A66:N66"/>
     <mergeCell ref="A68:J68"/>
     <mergeCell ref="A69:J69"/>
     <mergeCell ref="A70:J70"/>
     <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A67:N67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
